--- a/revised all year paper/CSCL_1995_revised.xlsx
+++ b/revised all year paper/CSCL_1995_revised.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyimin/PycharmProjects/plugins-quickstart/revised all year paper/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFE551-FB4D-1642-B023-A993D4FFB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="26120" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2355,8 +2361,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2432,13 +2438,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2476,7 +2490,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2510,6 +2524,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2544,9 +2559,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2719,14 +2735,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2749,28 +2767,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -2779,7 +2797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2802,28 +2820,28 @@
         <v>192</v>
       </c>
       <c r="H2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2" t="s">
         <v>193</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>421</v>
       </c>
-      <c r="L2" t="s">
-        <v>497</v>
-      </c>
       <c r="M2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O2" t="s">
         <v>499</v>
-      </c>
-      <c r="O2" t="s">
-        <v>575</v>
       </c>
       <c r="P2" t="s">
         <v>651</v>
@@ -2832,7 +2850,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2855,28 +2873,28 @@
         <v>192</v>
       </c>
       <c r="H3" t="s">
+        <v>576</v>
+      </c>
+      <c r="I3" t="s">
         <v>194</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>270</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>422</v>
       </c>
-      <c r="L3" t="s">
-        <v>497</v>
-      </c>
       <c r="M3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N3" t="s">
+        <v>498</v>
+      </c>
+      <c r="O3" t="s">
         <v>500</v>
-      </c>
-      <c r="O3" t="s">
-        <v>576</v>
       </c>
       <c r="P3" t="s">
         <v>651</v>
@@ -2885,7 +2903,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2908,28 +2926,28 @@
         <v>192</v>
       </c>
       <c r="H4" t="s">
+        <v>577</v>
+      </c>
+      <c r="I4" t="s">
         <v>195</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>271</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>423</v>
       </c>
-      <c r="L4" t="s">
-        <v>497</v>
-      </c>
       <c r="M4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N4" t="s">
+        <v>498</v>
+      </c>
+      <c r="O4" t="s">
         <v>501</v>
-      </c>
-      <c r="O4" t="s">
-        <v>577</v>
       </c>
       <c r="P4" t="s">
         <v>651</v>
@@ -2938,7 +2956,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2961,28 +2979,28 @@
         <v>192</v>
       </c>
       <c r="H5" t="s">
+        <v>578</v>
+      </c>
+      <c r="I5" t="s">
         <v>196</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>424</v>
       </c>
-      <c r="L5" t="s">
-        <v>497</v>
-      </c>
       <c r="M5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N5" t="s">
+        <v>498</v>
+      </c>
+      <c r="O5" t="s">
         <v>502</v>
-      </c>
-      <c r="O5" t="s">
-        <v>578</v>
       </c>
       <c r="P5" t="s">
         <v>651</v>
@@ -2991,7 +3009,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3014,28 +3032,28 @@
         <v>192</v>
       </c>
       <c r="H6" t="s">
+        <v>579</v>
+      </c>
+      <c r="I6" t="s">
         <v>197</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>273</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>425</v>
       </c>
-      <c r="L6" t="s">
-        <v>497</v>
-      </c>
       <c r="M6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N6" t="s">
+        <v>498</v>
+      </c>
+      <c r="O6" t="s">
         <v>503</v>
-      </c>
-      <c r="O6" t="s">
-        <v>579</v>
       </c>
       <c r="P6" t="s">
         <v>651</v>
@@ -3044,7 +3062,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3067,28 +3085,28 @@
         <v>192</v>
       </c>
       <c r="H7" t="s">
+        <v>580</v>
+      </c>
+      <c r="I7" t="s">
         <v>198</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>274</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>426</v>
       </c>
-      <c r="L7" t="s">
-        <v>497</v>
-      </c>
       <c r="M7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N7" t="s">
+        <v>498</v>
+      </c>
+      <c r="O7" t="s">
         <v>504</v>
-      </c>
-      <c r="O7" t="s">
-        <v>580</v>
       </c>
       <c r="P7" t="s">
         <v>651</v>
@@ -3097,7 +3115,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3120,28 +3138,28 @@
         <v>192</v>
       </c>
       <c r="H8" t="s">
+        <v>581</v>
+      </c>
+      <c r="I8" t="s">
         <v>199</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>275</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>427</v>
       </c>
-      <c r="L8" t="s">
-        <v>497</v>
-      </c>
       <c r="M8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N8" t="s">
+        <v>498</v>
+      </c>
+      <c r="O8" t="s">
         <v>505</v>
-      </c>
-      <c r="O8" t="s">
-        <v>581</v>
       </c>
       <c r="P8" t="s">
         <v>651</v>
@@ -3150,7 +3168,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3173,28 +3191,28 @@
         <v>192</v>
       </c>
       <c r="H9" t="s">
+        <v>582</v>
+      </c>
+      <c r="I9" t="s">
         <v>200</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>276</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>428</v>
       </c>
-      <c r="L9" t="s">
-        <v>497</v>
-      </c>
       <c r="M9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N9" t="s">
+        <v>498</v>
+      </c>
+      <c r="O9" t="s">
         <v>506</v>
-      </c>
-      <c r="O9" t="s">
-        <v>582</v>
       </c>
       <c r="P9" t="s">
         <v>651</v>
@@ -3203,7 +3221,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3226,28 +3244,28 @@
         <v>192</v>
       </c>
       <c r="H10" t="s">
+        <v>583</v>
+      </c>
+      <c r="I10" t="s">
         <v>201</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>277</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>429</v>
       </c>
-      <c r="L10" t="s">
-        <v>497</v>
-      </c>
       <c r="M10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N10" t="s">
+        <v>498</v>
+      </c>
+      <c r="O10" t="s">
         <v>507</v>
-      </c>
-      <c r="O10" t="s">
-        <v>583</v>
       </c>
       <c r="P10" t="s">
         <v>651</v>
@@ -3256,7 +3274,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3279,28 +3297,28 @@
         <v>192</v>
       </c>
       <c r="H11" t="s">
+        <v>584</v>
+      </c>
+      <c r="I11" t="s">
         <v>202</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>430</v>
       </c>
-      <c r="L11" t="s">
-        <v>497</v>
-      </c>
       <c r="M11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N11" t="s">
+        <v>498</v>
+      </c>
+      <c r="O11" t="s">
         <v>508</v>
-      </c>
-      <c r="O11" t="s">
-        <v>584</v>
       </c>
       <c r="P11" t="s">
         <v>651</v>
@@ -3309,7 +3327,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3332,28 +3350,28 @@
         <v>192</v>
       </c>
       <c r="H12" t="s">
+        <v>585</v>
+      </c>
+      <c r="I12" t="s">
         <v>203</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>279</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>431</v>
       </c>
-      <c r="L12" t="s">
-        <v>497</v>
-      </c>
       <c r="M12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N12" t="s">
+        <v>498</v>
+      </c>
+      <c r="O12" t="s">
         <v>509</v>
-      </c>
-      <c r="O12" t="s">
-        <v>585</v>
       </c>
       <c r="P12" t="s">
         <v>651</v>
@@ -3362,7 +3380,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3385,28 +3403,28 @@
         <v>192</v>
       </c>
       <c r="H13" t="s">
+        <v>586</v>
+      </c>
+      <c r="I13" t="s">
         <v>204</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>280</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>432</v>
       </c>
-      <c r="L13" t="s">
-        <v>497</v>
-      </c>
       <c r="M13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N13" t="s">
+        <v>498</v>
+      </c>
+      <c r="O13" t="s">
         <v>510</v>
-      </c>
-      <c r="O13" t="s">
-        <v>586</v>
       </c>
       <c r="P13" t="s">
         <v>651</v>
@@ -3415,7 +3433,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3438,28 +3456,28 @@
         <v>192</v>
       </c>
       <c r="H14" t="s">
+        <v>587</v>
+      </c>
+      <c r="I14" t="s">
         <v>205</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>281</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>433</v>
       </c>
-      <c r="L14" t="s">
-        <v>497</v>
-      </c>
       <c r="M14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N14" t="s">
+        <v>498</v>
+      </c>
+      <c r="O14" t="s">
         <v>511</v>
-      </c>
-      <c r="O14" t="s">
-        <v>587</v>
       </c>
       <c r="P14" t="s">
         <v>651</v>
@@ -3468,7 +3486,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3491,28 +3509,28 @@
         <v>192</v>
       </c>
       <c r="H15" t="s">
+        <v>588</v>
+      </c>
+      <c r="I15" t="s">
         <v>206</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>434</v>
       </c>
-      <c r="L15" t="s">
-        <v>497</v>
-      </c>
       <c r="M15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N15" t="s">
+        <v>498</v>
+      </c>
+      <c r="O15" t="s">
         <v>512</v>
-      </c>
-      <c r="O15" t="s">
-        <v>588</v>
       </c>
       <c r="P15" t="s">
         <v>651</v>
@@ -3521,7 +3539,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3544,28 +3562,28 @@
         <v>192</v>
       </c>
       <c r="H16" t="s">
+        <v>589</v>
+      </c>
+      <c r="I16" t="s">
         <v>207</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>283</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>435</v>
       </c>
-      <c r="L16" t="s">
-        <v>497</v>
-      </c>
       <c r="M16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N16" t="s">
+        <v>498</v>
+      </c>
+      <c r="O16" t="s">
         <v>513</v>
-      </c>
-      <c r="O16" t="s">
-        <v>589</v>
       </c>
       <c r="P16" t="s">
         <v>651</v>
@@ -3574,7 +3592,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3597,28 +3615,28 @@
         <v>192</v>
       </c>
       <c r="H17" t="s">
+        <v>590</v>
+      </c>
+      <c r="I17" t="s">
         <v>208</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>284</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>436</v>
       </c>
-      <c r="L17" t="s">
-        <v>497</v>
-      </c>
       <c r="M17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N17" t="s">
+        <v>498</v>
+      </c>
+      <c r="O17" t="s">
         <v>514</v>
-      </c>
-      <c r="O17" t="s">
-        <v>590</v>
       </c>
       <c r="P17" t="s">
         <v>651</v>
@@ -3627,7 +3645,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3650,28 +3668,28 @@
         <v>192</v>
       </c>
       <c r="H18" t="s">
+        <v>591</v>
+      </c>
+      <c r="I18" t="s">
         <v>209</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>285</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>437</v>
       </c>
-      <c r="L18" t="s">
-        <v>497</v>
-      </c>
       <c r="M18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N18" t="s">
+        <v>498</v>
+      </c>
+      <c r="O18" t="s">
         <v>515</v>
-      </c>
-      <c r="O18" t="s">
-        <v>591</v>
       </c>
       <c r="P18" t="s">
         <v>651</v>
@@ -3680,7 +3698,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3703,28 +3721,28 @@
         <v>192</v>
       </c>
       <c r="H19" t="s">
+        <v>592</v>
+      </c>
+      <c r="I19" t="s">
         <v>210</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>286</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>438</v>
       </c>
-      <c r="L19" t="s">
-        <v>497</v>
-      </c>
       <c r="M19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N19" t="s">
+        <v>498</v>
+      </c>
+      <c r="O19" t="s">
         <v>516</v>
-      </c>
-      <c r="O19" t="s">
-        <v>592</v>
       </c>
       <c r="P19" t="s">
         <v>651</v>
@@ -3733,7 +3751,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3756,28 +3774,28 @@
         <v>192</v>
       </c>
       <c r="H20" t="s">
+        <v>593</v>
+      </c>
+      <c r="I20" t="s">
         <v>211</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>287</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>439</v>
       </c>
-      <c r="L20" t="s">
-        <v>497</v>
-      </c>
       <c r="M20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N20" t="s">
+        <v>498</v>
+      </c>
+      <c r="O20" t="s">
         <v>517</v>
-      </c>
-      <c r="O20" t="s">
-        <v>593</v>
       </c>
       <c r="P20" t="s">
         <v>651</v>
@@ -3786,7 +3804,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3809,28 +3827,28 @@
         <v>192</v>
       </c>
       <c r="H21" t="s">
+        <v>594</v>
+      </c>
+      <c r="I21" t="s">
         <v>212</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>288</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>440</v>
       </c>
-      <c r="L21" t="s">
-        <v>497</v>
-      </c>
       <c r="M21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N21" t="s">
+        <v>498</v>
+      </c>
+      <c r="O21" t="s">
         <v>518</v>
-      </c>
-      <c r="O21" t="s">
-        <v>594</v>
       </c>
       <c r="P21" t="s">
         <v>651</v>
@@ -3839,7 +3857,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3862,28 +3880,28 @@
         <v>192</v>
       </c>
       <c r="H22" t="s">
+        <v>595</v>
+      </c>
+      <c r="I22" t="s">
         <v>213</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>289</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>441</v>
       </c>
-      <c r="L22" t="s">
-        <v>497</v>
-      </c>
       <c r="M22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N22" t="s">
+        <v>498</v>
+      </c>
+      <c r="O22" t="s">
         <v>519</v>
-      </c>
-      <c r="O22" t="s">
-        <v>595</v>
       </c>
       <c r="P22" t="s">
         <v>651</v>
@@ -3892,7 +3910,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3915,28 +3933,28 @@
         <v>192</v>
       </c>
       <c r="H23" t="s">
+        <v>596</v>
+      </c>
+      <c r="I23" t="s">
         <v>214</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>290</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>442</v>
       </c>
-      <c r="L23" t="s">
-        <v>497</v>
-      </c>
       <c r="M23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N23" t="s">
+        <v>498</v>
+      </c>
+      <c r="O23" t="s">
         <v>520</v>
-      </c>
-      <c r="O23" t="s">
-        <v>596</v>
       </c>
       <c r="P23" t="s">
         <v>651</v>
@@ -3945,7 +3963,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3968,28 +3986,28 @@
         <v>192</v>
       </c>
       <c r="H24" t="s">
+        <v>597</v>
+      </c>
+      <c r="I24" t="s">
         <v>215</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>291</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>443</v>
       </c>
-      <c r="L24" t="s">
-        <v>497</v>
-      </c>
       <c r="M24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N24" t="s">
+        <v>498</v>
+      </c>
+      <c r="O24" t="s">
         <v>521</v>
-      </c>
-      <c r="O24" t="s">
-        <v>597</v>
       </c>
       <c r="P24" t="s">
         <v>651</v>
@@ -3998,7 +4016,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4021,28 +4039,28 @@
         <v>192</v>
       </c>
       <c r="H25" t="s">
+        <v>598</v>
+      </c>
+      <c r="I25" t="s">
         <v>216</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>292</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>444</v>
       </c>
-      <c r="L25" t="s">
-        <v>497</v>
-      </c>
       <c r="M25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N25" t="s">
+        <v>498</v>
+      </c>
+      <c r="O25" t="s">
         <v>522</v>
-      </c>
-      <c r="O25" t="s">
-        <v>598</v>
       </c>
       <c r="P25" t="s">
         <v>651</v>
@@ -4051,7 +4069,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4074,28 +4092,28 @@
         <v>192</v>
       </c>
       <c r="H26" t="s">
+        <v>599</v>
+      </c>
+      <c r="I26" t="s">
         <v>217</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>293</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>445</v>
       </c>
-      <c r="L26" t="s">
-        <v>497</v>
-      </c>
       <c r="M26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N26" t="s">
+        <v>498</v>
+      </c>
+      <c r="O26" t="s">
         <v>523</v>
-      </c>
-      <c r="O26" t="s">
-        <v>599</v>
       </c>
       <c r="P26" t="s">
         <v>651</v>
@@ -4104,7 +4122,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -4127,28 +4145,28 @@
         <v>192</v>
       </c>
       <c r="H27" t="s">
+        <v>600</v>
+      </c>
+      <c r="I27" t="s">
         <v>218</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>294</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>446</v>
       </c>
-      <c r="L27" t="s">
-        <v>497</v>
-      </c>
       <c r="M27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N27" t="s">
+        <v>498</v>
+      </c>
+      <c r="O27" t="s">
         <v>524</v>
-      </c>
-      <c r="O27" t="s">
-        <v>600</v>
       </c>
       <c r="P27" t="s">
         <v>651</v>
@@ -4157,7 +4175,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4180,28 +4198,28 @@
         <v>192</v>
       </c>
       <c r="H28" t="s">
+        <v>601</v>
+      </c>
+      <c r="I28" t="s">
         <v>219</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>295</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>447</v>
       </c>
-      <c r="L28" t="s">
-        <v>497</v>
-      </c>
       <c r="M28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N28" t="s">
+        <v>498</v>
+      </c>
+      <c r="O28" t="s">
         <v>525</v>
-      </c>
-      <c r="O28" t="s">
-        <v>601</v>
       </c>
       <c r="P28" t="s">
         <v>651</v>
@@ -4210,7 +4228,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4233,28 +4251,28 @@
         <v>192</v>
       </c>
       <c r="H29" t="s">
+        <v>602</v>
+      </c>
+      <c r="I29" t="s">
         <v>220</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>296</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>448</v>
       </c>
-      <c r="L29" t="s">
-        <v>497</v>
-      </c>
       <c r="M29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N29" t="s">
+        <v>498</v>
+      </c>
+      <c r="O29" t="s">
         <v>526</v>
-      </c>
-      <c r="O29" t="s">
-        <v>602</v>
       </c>
       <c r="P29" t="s">
         <v>651</v>
@@ -4263,7 +4281,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4286,28 +4304,28 @@
         <v>192</v>
       </c>
       <c r="H30" t="s">
+        <v>603</v>
+      </c>
+      <c r="I30" t="s">
         <v>221</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>297</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>449</v>
       </c>
-      <c r="L30" t="s">
-        <v>497</v>
-      </c>
       <c r="M30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N30" t="s">
+        <v>498</v>
+      </c>
+      <c r="O30" t="s">
         <v>527</v>
-      </c>
-      <c r="O30" t="s">
-        <v>603</v>
       </c>
       <c r="P30" t="s">
         <v>651</v>
@@ -4316,7 +4334,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -4339,28 +4357,28 @@
         <v>192</v>
       </c>
       <c r="H31" t="s">
+        <v>604</v>
+      </c>
+      <c r="I31" t="s">
         <v>222</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>298</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>450</v>
       </c>
-      <c r="L31" t="s">
-        <v>497</v>
-      </c>
       <c r="M31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N31" t="s">
+        <v>498</v>
+      </c>
+      <c r="O31" t="s">
         <v>528</v>
-      </c>
-      <c r="O31" t="s">
-        <v>604</v>
       </c>
       <c r="P31" t="s">
         <v>651</v>
@@ -4369,7 +4387,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -4392,28 +4410,28 @@
         <v>192</v>
       </c>
       <c r="H32" t="s">
+        <v>605</v>
+      </c>
+      <c r="I32" t="s">
         <v>223</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>299</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>451</v>
       </c>
-      <c r="L32" t="s">
-        <v>497</v>
-      </c>
       <c r="M32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N32" t="s">
+        <v>498</v>
+      </c>
+      <c r="O32" t="s">
         <v>529</v>
-      </c>
-      <c r="O32" t="s">
-        <v>605</v>
       </c>
       <c r="P32" t="s">
         <v>651</v>
@@ -4422,7 +4440,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -4445,28 +4463,28 @@
         <v>192</v>
       </c>
       <c r="H33" t="s">
+        <v>606</v>
+      </c>
+      <c r="I33" t="s">
         <v>224</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>300</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>452</v>
       </c>
-      <c r="L33" t="s">
-        <v>497</v>
-      </c>
       <c r="M33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N33" t="s">
+        <v>498</v>
+      </c>
+      <c r="O33" t="s">
         <v>530</v>
-      </c>
-      <c r="O33" t="s">
-        <v>606</v>
       </c>
       <c r="P33" t="s">
         <v>651</v>
@@ -4475,7 +4493,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -4498,28 +4516,28 @@
         <v>192</v>
       </c>
       <c r="H34" t="s">
+        <v>607</v>
+      </c>
+      <c r="I34" t="s">
         <v>225</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>301</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>453</v>
       </c>
-      <c r="L34" t="s">
-        <v>497</v>
-      </c>
       <c r="M34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N34" t="s">
+        <v>498</v>
+      </c>
+      <c r="O34" t="s">
         <v>531</v>
-      </c>
-      <c r="O34" t="s">
-        <v>607</v>
       </c>
       <c r="P34" t="s">
         <v>651</v>
@@ -4528,7 +4546,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -4551,28 +4569,28 @@
         <v>192</v>
       </c>
       <c r="H35" t="s">
+        <v>608</v>
+      </c>
+      <c r="I35" t="s">
         <v>226</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>454</v>
       </c>
-      <c r="L35" t="s">
-        <v>497</v>
-      </c>
       <c r="M35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N35" t="s">
+        <v>498</v>
+      </c>
+      <c r="O35" t="s">
         <v>532</v>
-      </c>
-      <c r="O35" t="s">
-        <v>608</v>
       </c>
       <c r="P35" t="s">
         <v>651</v>
@@ -4581,7 +4599,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -4604,28 +4622,28 @@
         <v>192</v>
       </c>
       <c r="H36" t="s">
+        <v>609</v>
+      </c>
+      <c r="I36" t="s">
         <v>227</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>303</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>455</v>
       </c>
-      <c r="L36" t="s">
-        <v>497</v>
-      </c>
       <c r="M36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N36" t="s">
+        <v>498</v>
+      </c>
+      <c r="O36" t="s">
         <v>533</v>
-      </c>
-      <c r="O36" t="s">
-        <v>609</v>
       </c>
       <c r="P36" t="s">
         <v>651</v>
@@ -4634,7 +4652,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -4657,28 +4675,28 @@
         <v>192</v>
       </c>
       <c r="H37" t="s">
+        <v>610</v>
+      </c>
+      <c r="I37" t="s">
         <v>228</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>304</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>456</v>
       </c>
-      <c r="L37" t="s">
-        <v>497</v>
-      </c>
       <c r="M37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N37" t="s">
+        <v>498</v>
+      </c>
+      <c r="O37" t="s">
         <v>534</v>
-      </c>
-      <c r="O37" t="s">
-        <v>610</v>
       </c>
       <c r="P37" t="s">
         <v>651</v>
@@ -4687,7 +4705,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4710,28 +4728,28 @@
         <v>192</v>
       </c>
       <c r="H38" t="s">
+        <v>611</v>
+      </c>
+      <c r="I38" t="s">
         <v>229</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>305</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>457</v>
       </c>
-      <c r="L38" t="s">
-        <v>497</v>
-      </c>
       <c r="M38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N38" t="s">
+        <v>498</v>
+      </c>
+      <c r="O38" t="s">
         <v>535</v>
-      </c>
-      <c r="O38" t="s">
-        <v>611</v>
       </c>
       <c r="P38" t="s">
         <v>651</v>
@@ -4740,7 +4758,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -4763,28 +4781,28 @@
         <v>192</v>
       </c>
       <c r="H39" t="s">
+        <v>612</v>
+      </c>
+      <c r="I39" t="s">
         <v>230</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>306</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>458</v>
       </c>
-      <c r="L39" t="s">
-        <v>497</v>
-      </c>
       <c r="M39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N39" t="s">
+        <v>498</v>
+      </c>
+      <c r="O39" t="s">
         <v>536</v>
-      </c>
-      <c r="O39" t="s">
-        <v>612</v>
       </c>
       <c r="P39" t="s">
         <v>651</v>
@@ -4793,7 +4811,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -4816,28 +4834,28 @@
         <v>192</v>
       </c>
       <c r="H40" t="s">
+        <v>613</v>
+      </c>
+      <c r="I40" t="s">
         <v>231</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>307</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>459</v>
       </c>
-      <c r="L40" t="s">
-        <v>497</v>
-      </c>
       <c r="M40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N40" t="s">
+        <v>498</v>
+      </c>
+      <c r="O40" t="s">
         <v>537</v>
-      </c>
-      <c r="O40" t="s">
-        <v>613</v>
       </c>
       <c r="P40" t="s">
         <v>651</v>
@@ -4846,7 +4864,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4869,28 +4887,28 @@
         <v>192</v>
       </c>
       <c r="H41" t="s">
+        <v>614</v>
+      </c>
+      <c r="I41" t="s">
         <v>232</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>308</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>460</v>
       </c>
-      <c r="L41" t="s">
-        <v>497</v>
-      </c>
       <c r="M41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N41" t="s">
+        <v>498</v>
+      </c>
+      <c r="O41" t="s">
         <v>538</v>
-      </c>
-      <c r="O41" t="s">
-        <v>614</v>
       </c>
       <c r="P41" t="s">
         <v>651</v>
@@ -4899,7 +4917,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4922,28 +4940,28 @@
         <v>192</v>
       </c>
       <c r="H42" t="s">
+        <v>615</v>
+      </c>
+      <c r="I42" t="s">
         <v>233</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>309</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>461</v>
       </c>
-      <c r="L42" t="s">
-        <v>497</v>
-      </c>
       <c r="M42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N42" t="s">
+        <v>498</v>
+      </c>
+      <c r="O42" t="s">
         <v>539</v>
-      </c>
-      <c r="O42" t="s">
-        <v>615</v>
       </c>
       <c r="P42" t="s">
         <v>651</v>
@@ -4952,7 +4970,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4975,28 +4993,28 @@
         <v>192</v>
       </c>
       <c r="H43" t="s">
+        <v>616</v>
+      </c>
+      <c r="I43" t="s">
         <v>234</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>310</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>462</v>
       </c>
-      <c r="L43" t="s">
-        <v>497</v>
-      </c>
       <c r="M43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N43" t="s">
+        <v>498</v>
+      </c>
+      <c r="O43" t="s">
         <v>540</v>
-      </c>
-      <c r="O43" t="s">
-        <v>616</v>
       </c>
       <c r="P43" t="s">
         <v>651</v>
@@ -5005,7 +5023,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -5028,28 +5046,28 @@
         <v>192</v>
       </c>
       <c r="H44" t="s">
+        <v>617</v>
+      </c>
+      <c r="I44" t="s">
         <v>235</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>311</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>463</v>
       </c>
-      <c r="L44" t="s">
-        <v>497</v>
-      </c>
       <c r="M44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N44" t="s">
+        <v>498</v>
+      </c>
+      <c r="O44" t="s">
         <v>541</v>
-      </c>
-      <c r="O44" t="s">
-        <v>617</v>
       </c>
       <c r="P44" t="s">
         <v>651</v>
@@ -5058,7 +5076,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -5081,28 +5099,28 @@
         <v>192</v>
       </c>
       <c r="H45" t="s">
+        <v>618</v>
+      </c>
+      <c r="I45" t="s">
         <v>236</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>312</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>464</v>
       </c>
-      <c r="L45" t="s">
-        <v>497</v>
-      </c>
       <c r="M45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N45" t="s">
+        <v>498</v>
+      </c>
+      <c r="O45" t="s">
         <v>542</v>
-      </c>
-      <c r="O45" t="s">
-        <v>618</v>
       </c>
       <c r="P45" t="s">
         <v>651</v>
@@ -5111,7 +5129,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -5134,28 +5152,28 @@
         <v>192</v>
       </c>
       <c r="H46" t="s">
+        <v>619</v>
+      </c>
+      <c r="I46" t="s">
         <v>237</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>313</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>465</v>
       </c>
-      <c r="L46" t="s">
-        <v>497</v>
-      </c>
       <c r="M46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N46" t="s">
+        <v>498</v>
+      </c>
+      <c r="O46" t="s">
         <v>543</v>
-      </c>
-      <c r="O46" t="s">
-        <v>619</v>
       </c>
       <c r="P46" t="s">
         <v>651</v>
@@ -5164,7 +5182,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -5187,28 +5205,28 @@
         <v>192</v>
       </c>
       <c r="H47" t="s">
+        <v>620</v>
+      </c>
+      <c r="I47" t="s">
         <v>238</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>314</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>466</v>
       </c>
-      <c r="L47" t="s">
-        <v>497</v>
-      </c>
       <c r="M47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N47" t="s">
+        <v>498</v>
+      </c>
+      <c r="O47" t="s">
         <v>544</v>
-      </c>
-      <c r="O47" t="s">
-        <v>620</v>
       </c>
       <c r="P47" t="s">
         <v>651</v>
@@ -5217,7 +5235,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -5240,28 +5258,28 @@
         <v>192</v>
       </c>
       <c r="H48" t="s">
+        <v>621</v>
+      </c>
+      <c r="I48" t="s">
         <v>239</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>315</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>467</v>
       </c>
-      <c r="L48" t="s">
-        <v>497</v>
-      </c>
       <c r="M48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N48" t="s">
+        <v>498</v>
+      </c>
+      <c r="O48" t="s">
         <v>545</v>
-      </c>
-      <c r="O48" t="s">
-        <v>621</v>
       </c>
       <c r="P48" t="s">
         <v>651</v>
@@ -5270,7 +5288,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -5293,28 +5311,28 @@
         <v>192</v>
       </c>
       <c r="H49" t="s">
+        <v>622</v>
+      </c>
+      <c r="I49" t="s">
         <v>240</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>316</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>468</v>
       </c>
-      <c r="L49" t="s">
-        <v>497</v>
-      </c>
       <c r="M49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N49" t="s">
+        <v>498</v>
+      </c>
+      <c r="O49" t="s">
         <v>546</v>
-      </c>
-      <c r="O49" t="s">
-        <v>622</v>
       </c>
       <c r="P49" t="s">
         <v>651</v>
@@ -5323,7 +5341,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -5346,28 +5364,28 @@
         <v>192</v>
       </c>
       <c r="H50" t="s">
+        <v>623</v>
+      </c>
+      <c r="I50" t="s">
         <v>241</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>317</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>469</v>
       </c>
-      <c r="L50" t="s">
-        <v>497</v>
-      </c>
       <c r="M50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N50" t="s">
+        <v>498</v>
+      </c>
+      <c r="O50" t="s">
         <v>547</v>
-      </c>
-      <c r="O50" t="s">
-        <v>623</v>
       </c>
       <c r="P50" t="s">
         <v>651</v>
@@ -5376,7 +5394,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -5399,28 +5417,28 @@
         <v>192</v>
       </c>
       <c r="H51" t="s">
+        <v>624</v>
+      </c>
+      <c r="I51" t="s">
         <v>242</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>318</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>470</v>
       </c>
-      <c r="L51" t="s">
-        <v>497</v>
-      </c>
       <c r="M51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N51" t="s">
+        <v>498</v>
+      </c>
+      <c r="O51" t="s">
         <v>548</v>
-      </c>
-      <c r="O51" t="s">
-        <v>624</v>
       </c>
       <c r="P51" t="s">
         <v>651</v>
@@ -5429,7 +5447,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -5452,28 +5470,28 @@
         <v>192</v>
       </c>
       <c r="H52" t="s">
+        <v>625</v>
+      </c>
+      <c r="I52" t="s">
         <v>243</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>319</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>471</v>
       </c>
-      <c r="L52" t="s">
-        <v>497</v>
-      </c>
       <c r="M52" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N52" t="s">
+        <v>498</v>
+      </c>
+      <c r="O52" t="s">
         <v>549</v>
-      </c>
-      <c r="O52" t="s">
-        <v>625</v>
       </c>
       <c r="P52" t="s">
         <v>651</v>
@@ -5482,7 +5500,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -5505,28 +5523,28 @@
         <v>192</v>
       </c>
       <c r="H53" t="s">
+        <v>626</v>
+      </c>
+      <c r="I53" t="s">
         <v>244</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>320</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>472</v>
       </c>
-      <c r="L53" t="s">
-        <v>497</v>
-      </c>
       <c r="M53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N53" t="s">
+        <v>498</v>
+      </c>
+      <c r="O53" t="s">
         <v>550</v>
-      </c>
-      <c r="O53" t="s">
-        <v>626</v>
       </c>
       <c r="P53" t="s">
         <v>651</v>
@@ -5535,7 +5553,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -5558,28 +5576,28 @@
         <v>192</v>
       </c>
       <c r="H54" t="s">
+        <v>627</v>
+      </c>
+      <c r="I54" t="s">
         <v>245</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>321</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>473</v>
       </c>
-      <c r="L54" t="s">
-        <v>497</v>
-      </c>
       <c r="M54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N54" t="s">
+        <v>498</v>
+      </c>
+      <c r="O54" t="s">
         <v>551</v>
-      </c>
-      <c r="O54" t="s">
-        <v>627</v>
       </c>
       <c r="P54" t="s">
         <v>651</v>
@@ -5588,7 +5606,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -5611,28 +5629,28 @@
         <v>192</v>
       </c>
       <c r="H55" t="s">
+        <v>628</v>
+      </c>
+      <c r="I55" t="s">
         <v>246</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>322</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>474</v>
       </c>
-      <c r="L55" t="s">
-        <v>497</v>
-      </c>
       <c r="M55" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N55" t="s">
+        <v>498</v>
+      </c>
+      <c r="O55" t="s">
         <v>552</v>
-      </c>
-      <c r="O55" t="s">
-        <v>628</v>
       </c>
       <c r="P55" t="s">
         <v>651</v>
@@ -5641,7 +5659,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -5664,28 +5682,28 @@
         <v>192</v>
       </c>
       <c r="H56" t="s">
+        <v>629</v>
+      </c>
+      <c r="I56" t="s">
         <v>247</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>323</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>475</v>
       </c>
-      <c r="L56" t="s">
-        <v>497</v>
-      </c>
       <c r="M56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N56" t="s">
+        <v>498</v>
+      </c>
+      <c r="O56" t="s">
         <v>553</v>
-      </c>
-      <c r="O56" t="s">
-        <v>629</v>
       </c>
       <c r="P56" t="s">
         <v>651</v>
@@ -5694,7 +5712,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -5717,28 +5735,28 @@
         <v>192</v>
       </c>
       <c r="H57" t="s">
+        <v>630</v>
+      </c>
+      <c r="I57" t="s">
         <v>248</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>324</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>476</v>
       </c>
-      <c r="L57" t="s">
-        <v>497</v>
-      </c>
       <c r="M57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N57" t="s">
+        <v>498</v>
+      </c>
+      <c r="O57" t="s">
         <v>554</v>
-      </c>
-      <c r="O57" t="s">
-        <v>630</v>
       </c>
       <c r="P57" t="s">
         <v>651</v>
@@ -5747,7 +5765,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -5770,28 +5788,28 @@
         <v>192</v>
       </c>
       <c r="H58" t="s">
+        <v>631</v>
+      </c>
+      <c r="I58" t="s">
         <v>249</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>325</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>477</v>
       </c>
-      <c r="L58" t="s">
-        <v>497</v>
-      </c>
       <c r="M58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N58" t="s">
+        <v>498</v>
+      </c>
+      <c r="O58" t="s">
         <v>555</v>
-      </c>
-      <c r="O58" t="s">
-        <v>631</v>
       </c>
       <c r="P58" t="s">
         <v>651</v>
@@ -5800,7 +5818,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -5823,28 +5841,28 @@
         <v>192</v>
       </c>
       <c r="H59" t="s">
+        <v>632</v>
+      </c>
+      <c r="I59" t="s">
         <v>250</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>326</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>478</v>
       </c>
-      <c r="L59" t="s">
-        <v>497</v>
-      </c>
       <c r="M59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N59" t="s">
+        <v>498</v>
+      </c>
+      <c r="O59" t="s">
         <v>556</v>
-      </c>
-      <c r="O59" t="s">
-        <v>632</v>
       </c>
       <c r="P59" t="s">
         <v>651</v>
@@ -5853,7 +5871,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -5876,28 +5894,28 @@
         <v>192</v>
       </c>
       <c r="H60" t="s">
+        <v>633</v>
+      </c>
+      <c r="I60" t="s">
         <v>251</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>327</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>479</v>
       </c>
-      <c r="L60" t="s">
-        <v>497</v>
-      </c>
       <c r="M60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N60" t="s">
+        <v>498</v>
+      </c>
+      <c r="O60" t="s">
         <v>557</v>
-      </c>
-      <c r="O60" t="s">
-        <v>633</v>
       </c>
       <c r="P60" t="s">
         <v>651</v>
@@ -5906,7 +5924,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -5929,28 +5947,28 @@
         <v>192</v>
       </c>
       <c r="H61" t="s">
+        <v>634</v>
+      </c>
+      <c r="I61" t="s">
         <v>252</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>328</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>480</v>
       </c>
-      <c r="L61" t="s">
-        <v>497</v>
-      </c>
       <c r="M61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N61" t="s">
+        <v>498</v>
+      </c>
+      <c r="O61" t="s">
         <v>558</v>
-      </c>
-      <c r="O61" t="s">
-        <v>634</v>
       </c>
       <c r="P61" t="s">
         <v>651</v>
@@ -5959,7 +5977,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -5982,28 +6000,28 @@
         <v>192</v>
       </c>
       <c r="H62" t="s">
+        <v>635</v>
+      </c>
+      <c r="I62" t="s">
         <v>253</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>329</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>481</v>
       </c>
-      <c r="L62" t="s">
-        <v>497</v>
-      </c>
       <c r="M62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N62" t="s">
+        <v>498</v>
+      </c>
+      <c r="O62" t="s">
         <v>559</v>
-      </c>
-      <c r="O62" t="s">
-        <v>635</v>
       </c>
       <c r="P62" t="s">
         <v>651</v>
@@ -6012,7 +6030,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -6035,28 +6053,28 @@
         <v>192</v>
       </c>
       <c r="H63" t="s">
+        <v>636</v>
+      </c>
+      <c r="I63" t="s">
         <v>254</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>330</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>482</v>
       </c>
-      <c r="L63" t="s">
-        <v>497</v>
-      </c>
       <c r="M63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N63" t="s">
+        <v>498</v>
+      </c>
+      <c r="O63" t="s">
         <v>560</v>
-      </c>
-      <c r="O63" t="s">
-        <v>636</v>
       </c>
       <c r="P63" t="s">
         <v>651</v>
@@ -6065,7 +6083,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -6088,28 +6106,28 @@
         <v>192</v>
       </c>
       <c r="H64" t="s">
+        <v>637</v>
+      </c>
+      <c r="I64" t="s">
         <v>255</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>331</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>483</v>
       </c>
-      <c r="L64" t="s">
-        <v>497</v>
-      </c>
       <c r="M64" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N64" t="s">
+        <v>498</v>
+      </c>
+      <c r="O64" t="s">
         <v>561</v>
-      </c>
-      <c r="O64" t="s">
-        <v>637</v>
       </c>
       <c r="P64" t="s">
         <v>651</v>
@@ -6118,7 +6136,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -6141,28 +6159,28 @@
         <v>192</v>
       </c>
       <c r="H65" t="s">
+        <v>638</v>
+      </c>
+      <c r="I65" t="s">
         <v>256</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>332</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>484</v>
       </c>
-      <c r="L65" t="s">
-        <v>497</v>
-      </c>
       <c r="M65" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N65" t="s">
+        <v>498</v>
+      </c>
+      <c r="O65" t="s">
         <v>562</v>
-      </c>
-      <c r="O65" t="s">
-        <v>638</v>
       </c>
       <c r="P65" t="s">
         <v>651</v>
@@ -6171,7 +6189,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -6194,28 +6212,28 @@
         <v>192</v>
       </c>
       <c r="H66" t="s">
+        <v>639</v>
+      </c>
+      <c r="I66" t="s">
         <v>257</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>333</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>485</v>
       </c>
-      <c r="L66" t="s">
-        <v>497</v>
-      </c>
       <c r="M66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N66" t="s">
+        <v>498</v>
+      </c>
+      <c r="O66" t="s">
         <v>563</v>
-      </c>
-      <c r="O66" t="s">
-        <v>639</v>
       </c>
       <c r="P66" t="s">
         <v>651</v>
@@ -6224,7 +6242,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -6247,28 +6265,28 @@
         <v>192</v>
       </c>
       <c r="H67" t="s">
+        <v>640</v>
+      </c>
+      <c r="I67" t="s">
         <v>258</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>334</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>486</v>
       </c>
-      <c r="L67" t="s">
-        <v>497</v>
-      </c>
       <c r="M67" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N67" t="s">
+        <v>498</v>
+      </c>
+      <c r="O67" t="s">
         <v>564</v>
-      </c>
-      <c r="O67" t="s">
-        <v>640</v>
       </c>
       <c r="P67" t="s">
         <v>651</v>
@@ -6277,7 +6295,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -6300,28 +6318,28 @@
         <v>192</v>
       </c>
       <c r="H68" t="s">
+        <v>641</v>
+      </c>
+      <c r="I68" t="s">
         <v>259</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>335</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>487</v>
       </c>
-      <c r="L68" t="s">
-        <v>497</v>
-      </c>
       <c r="M68" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N68" t="s">
+        <v>498</v>
+      </c>
+      <c r="O68" t="s">
         <v>565</v>
-      </c>
-      <c r="O68" t="s">
-        <v>641</v>
       </c>
       <c r="P68" t="s">
         <v>651</v>
@@ -6330,7 +6348,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -6353,28 +6371,28 @@
         <v>192</v>
       </c>
       <c r="H69" t="s">
+        <v>642</v>
+      </c>
+      <c r="I69" t="s">
         <v>260</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>336</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>488</v>
       </c>
-      <c r="L69" t="s">
-        <v>497</v>
-      </c>
       <c r="M69" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N69" t="s">
+        <v>498</v>
+      </c>
+      <c r="O69" t="s">
         <v>566</v>
-      </c>
-      <c r="O69" t="s">
-        <v>642</v>
       </c>
       <c r="P69" t="s">
         <v>651</v>
@@ -6383,7 +6401,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -6406,28 +6424,28 @@
         <v>192</v>
       </c>
       <c r="H70" t="s">
+        <v>643</v>
+      </c>
+      <c r="I70" t="s">
         <v>261</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>337</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>489</v>
       </c>
-      <c r="L70" t="s">
-        <v>497</v>
-      </c>
       <c r="M70" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N70" t="s">
+        <v>498</v>
+      </c>
+      <c r="O70" t="s">
         <v>567</v>
-      </c>
-      <c r="O70" t="s">
-        <v>643</v>
       </c>
       <c r="P70" t="s">
         <v>651</v>
@@ -6436,7 +6454,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -6459,28 +6477,28 @@
         <v>192</v>
       </c>
       <c r="H71" t="s">
+        <v>644</v>
+      </c>
+      <c r="I71" t="s">
         <v>262</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>338</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>490</v>
       </c>
-      <c r="L71" t="s">
-        <v>497</v>
-      </c>
       <c r="M71" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N71" t="s">
+        <v>498</v>
+      </c>
+      <c r="O71" t="s">
         <v>568</v>
-      </c>
-      <c r="O71" t="s">
-        <v>644</v>
       </c>
       <c r="P71" t="s">
         <v>651</v>
@@ -6489,7 +6507,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -6512,28 +6530,28 @@
         <v>192</v>
       </c>
       <c r="H72" t="s">
+        <v>645</v>
+      </c>
+      <c r="I72" t="s">
         <v>263</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>339</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>491</v>
       </c>
-      <c r="L72" t="s">
-        <v>497</v>
-      </c>
       <c r="M72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N72" t="s">
+        <v>498</v>
+      </c>
+      <c r="O72" t="s">
         <v>569</v>
-      </c>
-      <c r="O72" t="s">
-        <v>645</v>
       </c>
       <c r="P72" t="s">
         <v>651</v>
@@ -6542,7 +6560,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -6565,28 +6583,28 @@
         <v>192</v>
       </c>
       <c r="H73" t="s">
+        <v>646</v>
+      </c>
+      <c r="I73" t="s">
         <v>264</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>340</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>492</v>
       </c>
-      <c r="L73" t="s">
-        <v>497</v>
-      </c>
       <c r="M73" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N73" t="s">
+        <v>498</v>
+      </c>
+      <c r="O73" t="s">
         <v>570</v>
-      </c>
-      <c r="O73" t="s">
-        <v>646</v>
       </c>
       <c r="P73" t="s">
         <v>651</v>
@@ -6595,7 +6613,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -6618,28 +6636,28 @@
         <v>192</v>
       </c>
       <c r="H74" t="s">
+        <v>647</v>
+      </c>
+      <c r="I74" t="s">
         <v>265</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>341</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>493</v>
       </c>
-      <c r="L74" t="s">
-        <v>497</v>
-      </c>
       <c r="M74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N74" t="s">
+        <v>498</v>
+      </c>
+      <c r="O74" t="s">
         <v>571</v>
-      </c>
-      <c r="O74" t="s">
-        <v>647</v>
       </c>
       <c r="P74" t="s">
         <v>651</v>
@@ -6648,7 +6666,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -6671,28 +6689,28 @@
         <v>192</v>
       </c>
       <c r="H75" t="s">
+        <v>648</v>
+      </c>
+      <c r="I75" t="s">
         <v>266</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>342</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>494</v>
       </c>
-      <c r="L75" t="s">
-        <v>497</v>
-      </c>
       <c r="M75" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N75" t="s">
+        <v>498</v>
+      </c>
+      <c r="O75" t="s">
         <v>572</v>
-      </c>
-      <c r="O75" t="s">
-        <v>648</v>
       </c>
       <c r="P75" t="s">
         <v>651</v>
@@ -6701,7 +6719,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -6724,28 +6742,28 @@
         <v>192</v>
       </c>
       <c r="H76" t="s">
+        <v>649</v>
+      </c>
+      <c r="I76" t="s">
         <v>267</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>343</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>495</v>
       </c>
-      <c r="L76" t="s">
-        <v>497</v>
-      </c>
       <c r="M76" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N76" t="s">
+        <v>498</v>
+      </c>
+      <c r="O76" t="s">
         <v>573</v>
-      </c>
-      <c r="O76" t="s">
-        <v>649</v>
       </c>
       <c r="P76" t="s">
         <v>651</v>
@@ -6754,7 +6772,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -6777,28 +6795,28 @@
         <v>192</v>
       </c>
       <c r="H77" t="s">
+        <v>650</v>
+      </c>
+      <c r="I77" t="s">
         <v>268</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>344</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>496</v>
       </c>
-      <c r="L77" t="s">
-        <v>497</v>
-      </c>
       <c r="M77" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N77" t="s">
+        <v>498</v>
+      </c>
+      <c r="O77" t="s">
         <v>574</v>
-      </c>
-      <c r="O77" t="s">
-        <v>650</v>
       </c>
       <c r="P77" t="s">
         <v>651</v>
@@ -6809,82 +6827,82 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23"/>
-    <hyperlink ref="J25" r:id="rId24"/>
-    <hyperlink ref="J26" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="J28" r:id="rId27"/>
-    <hyperlink ref="J29" r:id="rId28"/>
-    <hyperlink ref="J30" r:id="rId29"/>
-    <hyperlink ref="J31" r:id="rId30"/>
-    <hyperlink ref="J32" r:id="rId31"/>
-    <hyperlink ref="J33" r:id="rId32"/>
-    <hyperlink ref="J34" r:id="rId33"/>
-    <hyperlink ref="J35" r:id="rId34"/>
-    <hyperlink ref="J36" r:id="rId35"/>
-    <hyperlink ref="J37" r:id="rId36"/>
-    <hyperlink ref="J38" r:id="rId37"/>
-    <hyperlink ref="J39" r:id="rId38"/>
-    <hyperlink ref="J40" r:id="rId39"/>
-    <hyperlink ref="J41" r:id="rId40"/>
-    <hyperlink ref="J42" r:id="rId41"/>
-    <hyperlink ref="J43" r:id="rId42"/>
-    <hyperlink ref="J44" r:id="rId43"/>
-    <hyperlink ref="J45" r:id="rId44"/>
-    <hyperlink ref="J46" r:id="rId45"/>
-    <hyperlink ref="J47" r:id="rId46"/>
-    <hyperlink ref="J48" r:id="rId47"/>
-    <hyperlink ref="J49" r:id="rId48"/>
-    <hyperlink ref="J50" r:id="rId49"/>
-    <hyperlink ref="J51" r:id="rId50"/>
-    <hyperlink ref="J52" r:id="rId51"/>
-    <hyperlink ref="J53" r:id="rId52"/>
-    <hyperlink ref="J54" r:id="rId53"/>
-    <hyperlink ref="J55" r:id="rId54"/>
-    <hyperlink ref="J56" r:id="rId55"/>
-    <hyperlink ref="J57" r:id="rId56"/>
-    <hyperlink ref="J58" r:id="rId57"/>
-    <hyperlink ref="J59" r:id="rId58"/>
-    <hyperlink ref="J60" r:id="rId59"/>
-    <hyperlink ref="J61" r:id="rId60"/>
-    <hyperlink ref="J62" r:id="rId61"/>
-    <hyperlink ref="J63" r:id="rId62"/>
-    <hyperlink ref="J64" r:id="rId63"/>
-    <hyperlink ref="J65" r:id="rId64"/>
-    <hyperlink ref="J66" r:id="rId65"/>
-    <hyperlink ref="J67" r:id="rId66"/>
-    <hyperlink ref="J68" r:id="rId67"/>
-    <hyperlink ref="J69" r:id="rId68"/>
-    <hyperlink ref="J70" r:id="rId69"/>
-    <hyperlink ref="J71" r:id="rId70"/>
-    <hyperlink ref="J72" r:id="rId71"/>
-    <hyperlink ref="J73" r:id="rId72"/>
-    <hyperlink ref="J74" r:id="rId73"/>
-    <hyperlink ref="J75" r:id="rId74"/>
-    <hyperlink ref="J76" r:id="rId75"/>
-    <hyperlink ref="J77" r:id="rId76"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
